--- a/DOCUMENTACION/I. PLANIFICACION DEL PROYECTO/PRESUPUESTOS.xlsx
+++ b/DOCUMENTACION/I. PLANIFICACION DEL PROYECTO/PRESUPUESTOS.xlsx
@@ -15,90 +15,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>TAREA</t>
   </si>
   <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>ANALISIS</t>
+  </si>
+  <si>
+    <t>Definir Requerimientos</t>
+  </si>
+  <si>
+    <t>Definir descripcion del sistema  y objetivos</t>
+  </si>
+  <si>
+    <t>Definir elementos estrategicos</t>
+  </si>
+  <si>
+    <t>Diseñar diagrama de soporte</t>
+  </si>
+  <si>
+    <t>Diseñar modelo Entidad relacion</t>
+  </si>
+  <si>
+    <t>Diseñar diagrama de contexto</t>
+  </si>
+  <si>
+    <t>Definir procesos en EP y LDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseñar diagrama nivel 2 </t>
+  </si>
+  <si>
+    <t>Definir particion Funcional</t>
+  </si>
+  <si>
+    <t>Definir especificacion de control</t>
+  </si>
+  <si>
+    <t>Verificar todo el analisis</t>
+  </si>
+  <si>
+    <t>Evaluacion de Avances</t>
+  </si>
+  <si>
+    <t>Adaptacion de Cambios Solicitados</t>
+  </si>
+  <si>
+    <t>DISEÑO</t>
+  </si>
+  <si>
+    <t>Definir restricciones del sistema</t>
+  </si>
+  <si>
+    <t>Definir criterios de rendimiento</t>
+  </si>
+  <si>
+    <t>Enlistar modulos y programas</t>
+  </si>
+  <si>
+    <t>Diseño arquitectonico de los procesos estrategicos</t>
+  </si>
+  <si>
+    <t>Definir normas de diseño</t>
+  </si>
+  <si>
+    <t>Diseño de interfaz hombre-maquina</t>
+  </si>
+  <si>
+    <t>Enlistar y definir modelo de tablas</t>
+  </si>
+  <si>
+    <t>Verificar todo el Diseño</t>
+  </si>
+  <si>
+    <t>DESARROLLO Y PRUEBA</t>
+  </si>
+  <si>
+    <t>Crear Base de datos</t>
+  </si>
+  <si>
+    <t>Programar Mantenimiento de Articulo y sus derivados</t>
+  </si>
+  <si>
+    <t>Programar Mantenimiento de Recetas y sus derivados</t>
+  </si>
+  <si>
+    <t>Almacenar Equivalencia de Unidades de Medida</t>
+  </si>
+  <si>
+    <t>Programar Configuracion de Formula de recetas</t>
+  </si>
+  <si>
+    <t>Diseñar funciones necesarias para formula de receta</t>
+  </si>
+  <si>
+    <t>Desarrollar algoritmos de las partes inteligentes</t>
+  </si>
+  <si>
+    <t>Comprobar funcionamiento de los modulos</t>
+  </si>
+  <si>
+    <t>Diseñar manuales de instalacion</t>
+  </si>
+  <si>
+    <t>Diseñar manuales de configuracion</t>
+  </si>
+  <si>
+    <t>Diseñar manuales de Uso</t>
+  </si>
+  <si>
+    <t>Entrega de Avances</t>
+  </si>
+  <si>
+    <t>FACTOR</t>
+  </si>
+  <si>
     <t>COSTO</t>
-  </si>
-  <si>
-    <t>ANALISIS</t>
-  </si>
-  <si>
-    <t>Definir descripcion del sistema  y objetivos</t>
-  </si>
-  <si>
-    <t>Definir elementos estrategicos</t>
-  </si>
-  <si>
-    <t>Diseñar diagrama de soporte</t>
-  </si>
-  <si>
-    <t>Diseñar modelo Entidad relacion</t>
-  </si>
-  <si>
-    <t>Diseñar diagrama de contexto</t>
-  </si>
-  <si>
-    <t>Definir procesos en EP y LDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseñar diagrama nivel 2 </t>
-  </si>
-  <si>
-    <t>Definir particion Funcional</t>
-  </si>
-  <si>
-    <t>Definir especificacion de control</t>
-  </si>
-  <si>
-    <t>DISEÑO</t>
-  </si>
-  <si>
-    <t>Definir restricciones del sistema</t>
-  </si>
-  <si>
-    <t>Definir criterios de rendimiento</t>
-  </si>
-  <si>
-    <t>Enlistar modulos y programas</t>
-  </si>
-  <si>
-    <t>Diseño arquitectonico de los procesos estrategicos</t>
-  </si>
-  <si>
-    <t>Definir normas de diseño</t>
-  </si>
-  <si>
-    <t>Diseño de interfaz hombre-maquina</t>
-  </si>
-  <si>
-    <t>Enlistar y definir modelo de tablas</t>
-  </si>
-  <si>
-    <t>DESARROLLO Y PRUEBA</t>
-  </si>
-  <si>
-    <t>Cargar datos de configuraciones a la base de datos</t>
-  </si>
-  <si>
-    <t>Programar el sitio web en Pycharm con Html y Python</t>
-  </si>
-  <si>
-    <t>Desarrollar algoritmos de las partes inteligentes</t>
-  </si>
-  <si>
-    <t>Comprobar funcionamiento de los modulos</t>
-  </si>
-  <si>
-    <t>Presentar Proyecto final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL </t>
-  </si>
-  <si>
-    <t>FACTOR</t>
   </si>
   <si>
     <t>Proyecto de Software</t>
@@ -120,14 +156,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="[$$-409]#,##0.00;\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,7 +190,136 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,144 +330,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,7 +358,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.05"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,19 +418,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,157 +514,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,21 +563,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +603,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -608,26 +632,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,15 +669,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,130 +687,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -809,7 +833,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -818,11 +845,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1143,29 +1167,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="A1:B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="49.5714285714286" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.8571428571429" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.14285714285714" style="6"/>
+    <col min="1" max="1" width="48.1428571428571" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.1428571428571" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.14285714285714" style="7"/>
+    <col min="4" max="16384" width="9.14285714285714" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="9"/>
@@ -1174,217 +1199,337 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>40</v>
+      <c r="B3" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>40</v>
+      <c r="B4" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>40</v>
+      <c r="B5" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>60</v>
+      <c r="B6" s="10">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>60</v>
+      <c r="B7" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>80</v>
+      <c r="B8" s="10">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>150</v>
+      <c r="B9" s="10">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>60</v>
+      <c r="B10" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4">
-        <f>SUM(B3:B11)</f>
-        <v>570</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="1:2">
-      <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9"/>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="10">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="10">
+        <f>SUM(B3:B15)</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:2">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>120</v>
-      </c>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>120</v>
+      <c r="B18" s="10">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>120</v>
+      <c r="B19" s="10">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <v>80</v>
+      <c r="B20" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4">
-        <f>SUM(B14:B20)</f>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B21" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4">
-        <v>200</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4">
-        <v>600</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4">
-        <v>400</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4">
-        <v>150</v>
+        <v>14</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B27" s="10">
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3"/>
-      <c r="B28" s="4">
-        <f>SUM(B23:B27)</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="B28" s="3">
+        <f>SUM(B18:B27)</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="1:2">
+      <c r="A29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="4">
-        <f>SUM(B12,B21,B28)</f>
-        <v>2460</v>
-      </c>
+      <c r="B30" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" s="6" customFormat="1" spans="1:3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="10">
+        <f>SUM(B30:B42)</f>
+        <v>790</v>
+      </c>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" s="6" customFormat="1" spans="1:3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="10">
+        <f>B16+B28+B43</f>
+        <v>1685</v>
+      </c>
+      <c r="C44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1408,24 +1553,24 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4">
-        <f>Sheet2!B29</f>
-        <v>2460</v>
+        <f>Sheet2!B20</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4">
         <v>81</v>
@@ -1433,7 +1578,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4">
         <v>150</v>
@@ -1441,7 +1586,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4">
         <v>100</v>
@@ -1449,11 +1594,11 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4">
         <f>SUM(B2:B5)</f>
-        <v>2791</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:2">
